--- a/simulation_data/iterative_algorithm/i_error_level_2_percent_water_20.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_2_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.94966338516193</v>
+        <v>89.87741186571593</v>
       </c>
       <c r="D2" t="n">
-        <v>2.248999961072149</v>
+        <v>2.24027501379168</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.80711336382286</v>
+        <v>89.1298075505357</v>
       </c>
       <c r="D3" t="n">
-        <v>2.141577312056737</v>
+        <v>2.081846271100391</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.96781310102853</v>
+        <v>87.70378901265548</v>
       </c>
       <c r="D4" t="n">
-        <v>2.245083329256316</v>
+        <v>2.270214527341296</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.88965987755773</v>
+        <v>87.40475906363906</v>
       </c>
       <c r="D5" t="n">
-        <v>2.116445451489543</v>
+        <v>2.096790990885963</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.12257300966823</v>
+        <v>86.08979227968307</v>
       </c>
       <c r="D6" t="n">
-        <v>2.631495924930002</v>
+        <v>2.211076297124188</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.12204391491774</v>
+        <v>84.73452659594378</v>
       </c>
       <c r="D7" t="n">
-        <v>2.374730490885778</v>
+        <v>2.161067531060014</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.22037890760286</v>
+        <v>84.22318973842771</v>
       </c>
       <c r="D8" t="n">
-        <v>2.441254325195807</v>
+        <v>2.168141920317872</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.34196027340245</v>
+        <v>82.85464825116782</v>
       </c>
       <c r="D9" t="n">
-        <v>2.180497050610406</v>
+        <v>2.466284404524238</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.95246852015107</v>
+        <v>81.92181207702087</v>
       </c>
       <c r="D10" t="n">
-        <v>2.21870098876084</v>
+        <v>2.082887810834158</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.02253934247176</v>
+        <v>81.08936959699173</v>
       </c>
       <c r="D11" t="n">
-        <v>2.630139850171062</v>
+        <v>2.238987939906997</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.62988468409007</v>
+        <v>80.0584332989017</v>
       </c>
       <c r="D12" t="n">
-        <v>2.22922949321623</v>
+        <v>2.482403343963679</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.18111477152083</v>
+        <v>78.83671636894077</v>
       </c>
       <c r="D13" t="n">
-        <v>2.133718063786144</v>
+        <v>2.174937852918115</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.67152205103727</v>
+        <v>77.9980188327707</v>
       </c>
       <c r="D14" t="n">
-        <v>2.112233818525956</v>
+        <v>2.264393099525385</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.87697615989563</v>
+        <v>77.04343615279475</v>
       </c>
       <c r="D15" t="n">
-        <v>2.385200084019141</v>
+        <v>2.486119420478718</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.1823884313156</v>
+        <v>75.80224739213328</v>
       </c>
       <c r="D16" t="n">
-        <v>2.53685404117436</v>
+        <v>2.256313804027203</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.04730933133976</v>
+        <v>74.77747616931846</v>
       </c>
       <c r="D17" t="n">
-        <v>2.457754758823797</v>
+        <v>2.380386933853055</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.00462049838171</v>
+        <v>73.65540707839119</v>
       </c>
       <c r="D18" t="n">
-        <v>2.519263793688978</v>
+        <v>2.122776988175781</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.97340927300287</v>
+        <v>73.04472925087461</v>
       </c>
       <c r="D19" t="n">
-        <v>2.387309242406326</v>
+        <v>2.558422122858612</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.07313665233595</v>
+        <v>72.03928706267767</v>
       </c>
       <c r="D20" t="n">
-        <v>2.434022843612006</v>
+        <v>2.192729441570009</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.96061141542937</v>
+        <v>70.87027558717431</v>
       </c>
       <c r="D21" t="n">
-        <v>2.242960637408989</v>
+        <v>2.550023927553059</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.72192172475702</v>
+        <v>70.06318315965653</v>
       </c>
       <c r="D22" t="n">
-        <v>2.419390959606309</v>
+        <v>2.159437773253027</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.6973134834605</v>
+        <v>69.07249979588624</v>
       </c>
       <c r="D23" t="n">
-        <v>2.49857547952146</v>
+        <v>2.36234016115701</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.05775270208548</v>
+        <v>67.82840602507464</v>
       </c>
       <c r="D24" t="n">
-        <v>2.391426268238745</v>
+        <v>2.230894970414055</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.31164203977117</v>
+        <v>66.82981189485558</v>
       </c>
       <c r="D25" t="n">
-        <v>2.381875648568898</v>
+        <v>2.122123389042577</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.91468681417541</v>
+        <v>66.36517439782949</v>
       </c>
       <c r="D26" t="n">
-        <v>2.323444455754983</v>
+        <v>2.003504248504974</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.07865961709768</v>
+        <v>65.12196962585742</v>
       </c>
       <c r="D27" t="n">
-        <v>2.141209548770605</v>
+        <v>2.181080081004589</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.92486033966695</v>
+        <v>64.3085270063692</v>
       </c>
       <c r="D28" t="n">
-        <v>2.549494870250825</v>
+        <v>2.407128695569694</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.9232568477306</v>
+        <v>62.92682312346233</v>
       </c>
       <c r="D29" t="n">
-        <v>2.469554736378049</v>
+        <v>2.241995514152036</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.04315472482881</v>
+        <v>61.97345578540821</v>
       </c>
       <c r="D30" t="n">
-        <v>2.29156466168183</v>
+        <v>2.471783722601175</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.14848643155369</v>
+        <v>60.68681584610997</v>
       </c>
       <c r="D31" t="n">
-        <v>2.105701619102133</v>
+        <v>2.197867250489663</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.40526392489174</v>
+        <v>60.26460640488787</v>
       </c>
       <c r="D32" t="n">
-        <v>2.436695088726996</v>
+        <v>2.105555761421129</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.40262611555496</v>
+        <v>59.3859050240573</v>
       </c>
       <c r="D33" t="n">
-        <v>2.648308179264565</v>
+        <v>2.176754287825744</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.19360951307035</v>
+        <v>57.83428942083453</v>
       </c>
       <c r="D34" t="n">
-        <v>2.4268971865393</v>
+        <v>2.061030167291704</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.79682285968975</v>
+        <v>56.90915762089396</v>
       </c>
       <c r="D35" t="n">
-        <v>2.392655799399531</v>
+        <v>2.229131193457195</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.99701712163902</v>
+        <v>56.00004082595304</v>
       </c>
       <c r="D36" t="n">
-        <v>2.27738652795814</v>
+        <v>2.164655925437332</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.27518537741449</v>
+        <v>55.39043375309208</v>
       </c>
       <c r="D37" t="n">
-        <v>2.41811845946821</v>
+        <v>2.341839855525898</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.1035924620513</v>
+        <v>53.72349624242351</v>
       </c>
       <c r="D38" t="n">
-        <v>2.475982710129374</v>
+        <v>2.199994375720074</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.89243192910035</v>
+        <v>52.64033608663885</v>
       </c>
       <c r="D39" t="n">
-        <v>2.376427105282418</v>
+        <v>2.334208438254055</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.77856252202235</v>
+        <v>52.06980628644735</v>
       </c>
       <c r="D40" t="n">
-        <v>2.269055455986504</v>
+        <v>2.511926952013813</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.63218874654078</v>
+        <v>51.03154496938598</v>
       </c>
       <c r="D41" t="n">
-        <v>2.529266340128106</v>
+        <v>2.553980066445651</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.63970484379351</v>
+        <v>50.08560782498957</v>
       </c>
       <c r="D42" t="n">
-        <v>2.315031307524488</v>
+        <v>2.506339158835166</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.91047961420716</v>
+        <v>48.82244880783481</v>
       </c>
       <c r="D43" t="n">
-        <v>2.328836008685804</v>
+        <v>2.36701793747336</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.09248811783416</v>
+        <v>47.79735960113121</v>
       </c>
       <c r="D44" t="n">
-        <v>2.477409785854262</v>
+        <v>2.22206136569522</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.10463207123592</v>
+        <v>46.78474535769956</v>
       </c>
       <c r="D45" t="n">
-        <v>2.382988014812137</v>
+        <v>2.326333802892181</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.03830916740387</v>
+        <v>46.28784442093222</v>
       </c>
       <c r="D46" t="n">
-        <v>2.348637875617089</v>
+        <v>2.530636994491923</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.85756319673445</v>
+        <v>45.05065207424795</v>
       </c>
       <c r="D47" t="n">
-        <v>2.373584809956616</v>
+        <v>2.202646227164651</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.79497239813339</v>
+        <v>43.83010320380299</v>
       </c>
       <c r="D48" t="n">
-        <v>2.463703413992964</v>
+        <v>2.165952124917983</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.94513198153159</v>
+        <v>42.890239056895</v>
       </c>
       <c r="D49" t="n">
-        <v>2.510420920734734</v>
+        <v>2.402348014581449</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.98356544099998</v>
+        <v>41.7632909827003</v>
       </c>
       <c r="D50" t="n">
-        <v>2.730620985778014</v>
+        <v>2.358630679144875</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.20489313025706</v>
+        <v>41.34513535425577</v>
       </c>
       <c r="D51" t="n">
-        <v>2.187744891547631</v>
+        <v>2.262905059650996</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.0079777928003</v>
+        <v>40.02472060236116</v>
       </c>
       <c r="D52" t="n">
-        <v>2.41701801011299</v>
+        <v>2.413610016899211</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.05423083413477</v>
+        <v>38.93630972811438</v>
       </c>
       <c r="D53" t="n">
-        <v>2.334109522941521</v>
+        <v>2.32560864827762</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.98124094226958</v>
+        <v>38.01953430530615</v>
       </c>
       <c r="D54" t="n">
-        <v>2.41624966230567</v>
+        <v>2.464753489768132</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.19253461533108</v>
+        <v>36.62571082185503</v>
       </c>
       <c r="D55" t="n">
-        <v>2.483753826564596</v>
+        <v>1.987390659216259</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.9956317714203</v>
+        <v>36.08652157840906</v>
       </c>
       <c r="D56" t="n">
-        <v>2.52593678384362</v>
+        <v>2.451692674961473</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.28079154386743</v>
+        <v>35.00659978527433</v>
       </c>
       <c r="D57" t="n">
-        <v>2.459809748596138</v>
+        <v>2.379559761629523</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.22432539143125</v>
+        <v>33.99740148078662</v>
       </c>
       <c r="D58" t="n">
-        <v>2.375375699002943</v>
+        <v>2.165512729348091</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.02572518887471</v>
+        <v>32.74181281645832</v>
       </c>
       <c r="D59" t="n">
-        <v>2.209496993641958</v>
+        <v>2.308409954561043</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.05703964565112</v>
+        <v>31.80048390890972</v>
       </c>
       <c r="D60" t="n">
-        <v>2.355311110373997</v>
+        <v>2.162409941782034</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.69235548849498</v>
+        <v>31.03257661159801</v>
       </c>
       <c r="D61" t="n">
-        <v>2.348661176682374</v>
+        <v>2.052590618215822</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.19724492449975</v>
+        <v>29.68640000762856</v>
       </c>
       <c r="D62" t="n">
-        <v>2.761951264935282</v>
+        <v>2.23347145402115</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.68985461466509</v>
+        <v>28.69533151294058</v>
       </c>
       <c r="D63" t="n">
-        <v>2.561199122715446</v>
+        <v>2.239937228082174</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.13664222851954</v>
+        <v>28.33410194563942</v>
       </c>
       <c r="D64" t="n">
-        <v>2.469489005182886</v>
+        <v>2.317636391876061</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.26670015467613</v>
+        <v>27.05522848632243</v>
       </c>
       <c r="D65" t="n">
-        <v>2.120754889987365</v>
+        <v>2.662943626513478</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.77619685337912</v>
+        <v>26.32604995853388</v>
       </c>
       <c r="D66" t="n">
-        <v>2.475603706031645</v>
+        <v>2.427592073286943</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.90295969825686</v>
+        <v>25.24697154430308</v>
       </c>
       <c r="D67" t="n">
-        <v>2.208191830188341</v>
+        <v>2.406021488328956</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.80381280523429</v>
+        <v>24.04690954827611</v>
       </c>
       <c r="D68" t="n">
-        <v>2.274121578328732</v>
+        <v>2.480566809939974</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.69235613234368</v>
+        <v>22.93850782856261</v>
       </c>
       <c r="D69" t="n">
-        <v>2.171630117406449</v>
+        <v>2.369544753042529</v>
       </c>
     </row>
   </sheetData>
